--- a/deep_seq_batch/figures/SBharadwaj_20240318_Sample_3_6_06_output_v0.1_speed_coherence.xlsx
+++ b/deep_seq_batch/figures/SBharadwaj_20240318_Sample_3_6_06_output_v0.1_speed_coherence.xlsx
@@ -522,52 +522,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.004663120489567518</v>
+        <v>0.5661661028862</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003202511696144938</v>
+        <v>0.7159267067909241</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0006141248159110546</v>
+        <v>0.7193450331687927</v>
       </c>
       <c r="E2" t="n">
-        <v>0.003561403369531035</v>
+        <v>0.7856466174125671</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00454081641510129</v>
+        <v>1.001259922981262</v>
       </c>
       <c r="G2" t="n">
-        <v>0.001563980942592025</v>
+        <v>0.4174861311912537</v>
       </c>
       <c r="H2" t="n">
-        <v>0.004128113854676485</v>
+        <v>0.579662561416626</v>
       </c>
       <c r="I2" t="n">
-        <v>0.002488038269802928</v>
+        <v>0.6168695688247681</v>
       </c>
       <c r="J2" t="n">
-        <v>0.006836734246462584</v>
+        <v>1.567164897918701</v>
       </c>
       <c r="K2" t="n">
-        <v>0.003089430741965771</v>
+        <v>0.5140880346298218</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001046511577442288</v>
+        <v>0.5891208648681641</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0001428571413271129</v>
+        <v>0.5672857165336609</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0002272727288072929</v>
+        <v>0.6231372952461243</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0003030303050763905</v>
+        <v>0.6741176247596741</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>0.5964000225067139</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.001304347766563296</v>
+        <v>0.5486956238746643</v>
       </c>
     </row>
     <row r="3">
@@ -577,45 +577,53 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6796440491753239</v>
+        <v>0.7577004328122566</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7274749675585378</v>
+        <v>0.6490910965804906</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8206896538535754</v>
+        <v>0.6628234073403936</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7068965544125864</v>
+        <v>0.8092756898126895</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4228675169380088</v>
+        <v>0.8675359607309964</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9980842951271269</v>
+        <v>0.6396234615563025</v>
       </c>
       <c r="H3" t="n">
-        <v>0.689655171500312</v>
+        <v>0.6361412023382684</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9586207032203674</v>
+        <v>0.7504233712735383</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7517241403460503</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
+        <v>0.8525870930902737</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.6682992609885504</v>
+      </c>
       <c r="L3" t="n">
-        <v>0.8</v>
+        <v>0.6193928845881761</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9310344755649567</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+        <v>0.8933740343366351</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.6815624272122103</v>
+      </c>
       <c r="O3" t="n">
-        <v>0.9482758790254593</v>
-      </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
+        <v>0.6876254669007134</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.8273404312133789</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.7435995988223864</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
